--- a/review/available_metal_lci_review.xlsx
+++ b/review/available_metal_lci_review.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/LCI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="626" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9B21AED-EDB5-41D8-A6F4-ED0DA96091E4}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C3F25D3-1E9D-4B2B-8B9E-7E4CBC52AAC4}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="lci_data" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
-    <sheet name="cobalt_sc" sheetId="5" r:id="rId4"/>
-    <sheet name="copper_sc" sheetId="6" r:id="rId5"/>
-    <sheet name="lithium_sc" sheetId="7" r:id="rId6"/>
-    <sheet name="nickel_sc" sheetId="8" r:id="rId7"/>
-    <sheet name="rees_sc" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lci_data!$A$1:$J$96</definedName>
@@ -45,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D92DC4AD-1187-4797-BCCF-0962C1A599DA}</author>
+  </authors>
+  <commentList>
+    <comment ref="D97" authorId="0" shapeId="0" xr:uid="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name for Roy et al (2024) are approximative are they are not yet published as of Jan 2025</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="267">
   <si>
     <t>SOURCE</t>
   </si>
@@ -916,19 +929,7 @@
     <t>Describe the mineral name along with information from the LCI data directly exported from Brightway. The system boundary and allocation method are manually added</t>
   </si>
   <si>
-    <t>IEA (2021)</t>
-  </si>
-  <si>
     <t>See the 'reference' tab for the link to the original source of the LCIs.</t>
-  </si>
-  <si>
-    <t>IEA (2021), Harpeccht et al (2021)</t>
-  </si>
-  <si>
-    <t>IEA (2021), Van der Meide et al (2022)</t>
-  </si>
-  <si>
-    <t>Supply chain graphic representation</t>
   </si>
   <si>
     <r>
@@ -957,62 +958,41 @@
     </r>
   </si>
   <si>
-    <t>Classen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistry </t>
-  </si>
-  <si>
-    <t>IEA (2021), Classen (2009), Mistry et al (2016), JRC (2017)</t>
-  </si>
-  <si>
-    <t>JRC</t>
-  </si>
-  <si>
     <t>lci_data</t>
   </si>
   <si>
-    <t>cobalt_sc</t>
-  </si>
-  <si>
-    <t>copper_sc</t>
-  </si>
-  <si>
-    <t>lithium_sc</t>
-  </si>
-  <si>
-    <t>nickel_sc</t>
-  </si>
-  <si>
-    <t>rees_sc</t>
-  </si>
-  <si>
-    <t>International Aluminium Institute</t>
-  </si>
-  <si>
-    <t>World Steel Association</t>
-  </si>
-  <si>
-    <t>International Copper Association</t>
-  </si>
-  <si>
-    <t>Internation Copper Study Group</t>
-  </si>
-  <si>
-    <t>Nickel Institute</t>
-  </si>
-  <si>
-    <t>Cobalt Institute</t>
-  </si>
-  <si>
-    <t>ICMM (International Council on Mining &amp; Metals)</t>
+    <t>Not publicly available yet</t>
+  </si>
+  <si>
+    <t>Roy et al (2024)</t>
+  </si>
+  <si>
+    <t>POX leaching of 19% Ni concentrate and refining to nickel metal</t>
+  </si>
+  <si>
+    <t>HPAL processing of laterite ores</t>
+  </si>
+  <si>
+    <t>Bioheap leaching processing of sulfide ores</t>
+  </si>
+  <si>
+    <t>Bioleaching of sulfidic tailings</t>
+  </si>
+  <si>
+    <t>Pyrometallurgical treatment of sulfide ores</t>
+  </si>
+  <si>
+    <t>RKEF processing of laterite ores</t>
+  </si>
+  <si>
+    <t>Mass allocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1027,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1105,537 +1091,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>572236</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram of different types of minerals&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF66C8B-B717-F9EB-62EA-FC8D31C52739}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8497036" cy="3856054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>314606</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66493</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="A diagram of a company's process&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7834068F-65CA-E2DE-7028-AF39C67CCF84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9067800" y="0"/>
-          <a:ext cx="7706006" cy="4821373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579857</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>61298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram of a graph&#10;&#10;Description automatically generated with medium confidence">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E34A34-6CF9-4A3E-A130-3A9891E4BB6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8504657" cy="3901778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>92306</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="A diagram of a production process&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471BB4C0-DC0A-AC9E-311B-013BF8BB3564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8641080" y="0"/>
-          <a:ext cx="6081626" cy="4823198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>556995</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68919</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram of different types of processes&#10;&#10;Description automatically generated with medium confidence">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5FDE56-C64A-58EE-3BB5-C18D4D00952E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8481795" cy="3909399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>595098</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175608</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram of a graph and a diagram of a diagram&#10;&#10;Description automatically generated with medium confidence">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB214E69-F5AA-95F9-57D9-9DE09D985B13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8519898" cy="4016088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B728C99-259C-CA78-2303-5341BE66B012}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9166860" y="0"/>
-          <a:ext cx="7772400" cy="5492496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>328270</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>23361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6A250C-2F53-7ECB-B1B7-16A0706632D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5768340"/>
-          <a:ext cx="7033870" cy="5776461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>137303</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BA402C-03F4-1D29-C041-975D528A3C6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="12428220"/>
-          <a:ext cx="7772400" cy="5631323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>127140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114944</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>165782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3CF450-1044-3F89-4193-B3068D2EC045}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12380100"/>
-          <a:ext cx="7430144" cy="6256562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38843</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46041</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDF31E8-FE07-2AC5-51F4-B7CE4B5A82EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8573243" cy="3703641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Marin PELLAN" id="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" userId="S::marin.pellan@polymtlus.ca::b769edc3-00f3-432c-88ea-f74fb5c6c1e4" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1899,15 +1358,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D97" dT="2025-01-07T19:28:55.20" personId="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" id="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+    <text>The name for Roy et al (2024) are approximative are they are not yet published as of Jan 2025</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,75 +1417,20 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
         <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2028,16 +1440,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
-  <dimension ref="A1:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.33203125" bestFit="1" customWidth="1"/>
@@ -2524,7 +1936,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
@@ -2553,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -2608,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
@@ -3590,7 +3002,7 @@
         <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
@@ -3619,7 +3031,7 @@
         <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I58" t="s">
         <v>45</v>
@@ -3648,7 +3060,7 @@
         <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
@@ -3677,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I60" t="s">
         <v>45</v>
@@ -3706,7 +3118,7 @@
         <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I61" t="s">
         <v>45</v>
@@ -3735,7 +3147,7 @@
         <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I62" t="s">
         <v>45</v>
@@ -3764,7 +3176,7 @@
         <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I63" t="s">
         <v>45</v>
@@ -3793,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
         <v>45</v>
@@ -3822,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I65" t="s">
         <v>45</v>
@@ -3851,7 +3263,7 @@
         <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I66" t="s">
         <v>45</v>
@@ -3880,7 +3292,7 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I67" t="s">
         <v>45</v>
@@ -3909,7 +3321,7 @@
         <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I68" t="s">
         <v>45</v>
@@ -3938,7 +3350,7 @@
         <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I69" t="s">
         <v>45</v>
@@ -3967,7 +3379,7 @@
         <v>64</v>
       </c>
       <c r="G70" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I70" t="s">
         <v>45</v>
@@ -3996,7 +3408,7 @@
         <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I71" t="s">
         <v>45</v>
@@ -4025,7 +3437,7 @@
         <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I72" t="s">
         <v>45</v>
@@ -4054,7 +3466,7 @@
         <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I73" t="s">
         <v>45</v>
@@ -4083,7 +3495,7 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I74" t="s">
         <v>45</v>
@@ -4112,7 +3524,7 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I75" t="s">
         <v>45</v>
@@ -4141,7 +3553,7 @@
         <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I76" t="s">
         <v>45</v>
@@ -4170,7 +3582,7 @@
         <v>64</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I77" t="s">
         <v>45</v>
@@ -4199,7 +3611,7 @@
         <v>64</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I78" t="s">
         <v>45</v>
@@ -4228,7 +3640,7 @@
         <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I79" t="s">
         <v>45</v>
@@ -4257,7 +3669,7 @@
         <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I80" t="s">
         <v>45</v>
@@ -4312,7 +3724,7 @@
         <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I82" t="s">
         <v>45</v>
@@ -4341,7 +3753,7 @@
         <v>64</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I83" t="s">
         <v>45</v>
@@ -4370,7 +3782,7 @@
         <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I84" t="s">
         <v>45</v>
@@ -4399,7 +3811,7 @@
         <v>28</v>
       </c>
       <c r="G85" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I85" t="s">
         <v>45</v>
@@ -4428,7 +3840,7 @@
         <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I86" t="s">
         <v>45</v>
@@ -4483,7 +3895,7 @@
         <v>64</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I88" t="s">
         <v>45</v>
@@ -4512,7 +3924,7 @@
         <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I89" t="s">
         <v>45</v>
@@ -4541,7 +3953,7 @@
         <v>64</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I90" t="s">
         <v>45</v>
@@ -4570,7 +3982,7 @@
         <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I91" t="s">
         <v>45</v>
@@ -4599,7 +4011,7 @@
         <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I92" t="s">
         <v>45</v>
@@ -4628,7 +4040,7 @@
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I93" t="s">
         <v>45</v>
@@ -4716,6 +4128,111 @@
       </c>
       <c r="J96" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+      <c r="H98" t="s">
+        <v>239</v>
+      </c>
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" t="s">
+        <v>262</v>
+      </c>
+      <c r="H99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" t="s">
+        <v>266</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" t="s">
+        <v>264</v>
+      </c>
+      <c r="H101" t="s">
+        <v>239</v>
+      </c>
+      <c r="I101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" t="s">
+        <v>265</v>
+      </c>
+      <c r="H102" t="s">
+        <v>239</v>
+      </c>
+      <c r="I102" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4725,74 +4242,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6788E6AD-EE2F-41AB-AEC2-3B17B15EBCF6}">
-  <dimension ref="A2:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B5FBC-ABEF-4F30-8E15-2CC51521EAF5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14586C5E-52A9-4FB8-AB77-EBDABC3FE2DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4800,63 +4255,5 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344CA360-95D0-4485-B232-827BCBACEE81}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB6CAD5-A06F-45E5-9776-8A1995C32BC9}">
-  <dimension ref="A31:Q67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D683CF5-9058-44E1-86AD-592708F3B5DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>